--- a/24-25Year/Spring25/DES-315/Project1Submission/CardGameInterface.xlsx
+++ b/24-25Year/Spring25/DES-315/Project1Submission/CardGameInterface.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KingLoui1221\Documents\DIT Stuff\DITRepo\DITWork\24-25Year\Spring25\DES-315\Project1Submission\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chaos\Documents\DIT Work\DITRepo\24-25Year\Spring25\DES-315\Project1Submission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{284154FE-2621-4EDF-B83B-334993EBDC9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81622E5C-45AC-4355-8D4B-6E749F8D4D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
@@ -2255,15 +2255,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="130.5703125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="6.54296875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="130.54296875" style="4" customWidth="1"/>
     <col min="4" max="4" width="9" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="12" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
@@ -2282,7 +2282,7 @@
       </c>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:5" ht="48" thickBot="1">
+    <row r="2" spans="1:5" ht="47" thickBot="1">
       <c r="A2" s="28">
         <v>0.57999999999999996</v>
       </c>
@@ -2300,14 +2300,14 @@
       </c>
       <c r="C3" s="20"/>
     </row>
-    <row r="4" spans="1:5" ht="48" thickBot="1">
+    <row r="4" spans="1:5" ht="47" thickBot="1">
       <c r="A4" s="54"/>
       <c r="B4" s="57"/>
       <c r="C4" s="20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.5" thickBot="1">
+    <row r="5" spans="1:5" ht="16" thickBot="1">
       <c r="A5" s="55"/>
       <c r="B5" s="58"/>
       <c r="C5" s="15"/>
@@ -2386,7 +2386,7 @@
       </c>
       <c r="E11" s="14"/>
     </row>
-    <row r="12" spans="1:5" ht="8.1" customHeight="1" thickBot="1">
+    <row r="12" spans="1:5" ht="8.15" customHeight="1" thickBot="1">
       <c r="C12" s="15"/>
     </row>
     <row r="13" spans="1:5" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" thickBot="1">
@@ -2402,7 +2402,7 @@
       </c>
       <c r="E13" s="14"/>
     </row>
-    <row r="14" spans="1:5" s="2" customFormat="1" ht="31.5">
+    <row r="14" spans="1:5" s="2" customFormat="1" ht="31">
       <c r="A14" s="22">
         <f t="shared" ref="A14:A16" si="1">IF(LEFT(B14,2)="No",-0.1,IF(LEFT(B14,7)="Partial",0.01,IF(LEFT(B14,4)="Full",0.03,"n/a")))</f>
         <v>0.03</v>
@@ -2415,20 +2415,20 @@
       </c>
       <c r="E14" s="14"/>
     </row>
-    <row r="15" spans="1:5" s="2" customFormat="1" ht="31.5">
+    <row r="15" spans="1:5" s="2" customFormat="1" ht="31">
       <c r="A15" s="22">
         <f t="shared" si="1"/>
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>44</v>
       </c>
       <c r="E15" s="13"/>
     </row>
-    <row r="16" spans="1:5" s="2" customFormat="1" ht="32.25" thickBot="1">
+    <row r="16" spans="1:5" s="2" customFormat="1" ht="31.5" thickBot="1">
       <c r="A16" s="22">
         <f t="shared" si="1"/>
         <v>-0.1</v>
@@ -2463,7 +2463,7 @@
       </c>
       <c r="E18" s="14"/>
     </row>
-    <row r="19" spans="1:5" ht="8.1" customHeight="1" thickBot="1">
+    <row r="19" spans="1:5" ht="8.15" customHeight="1" thickBot="1">
       <c r="C19" s="15"/>
     </row>
     <row r="20" spans="1:5" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" thickBot="1">
@@ -2479,7 +2479,7 @@
       </c>
       <c r="E20" s="14"/>
     </row>
-    <row r="21" spans="1:5" s="2" customFormat="1" ht="31.5">
+    <row r="21" spans="1:5" s="2" customFormat="1" ht="31">
       <c r="A21" s="21">
         <f t="shared" ref="A21:A23" si="3">IF(LEFT(B21,2)="No",-0.1,IF(LEFT(B21,7)="Partial",0.01,IF(LEFT(B21,4)="Full",0.03,"n/a")))</f>
         <v>0.03</v>
@@ -2492,7 +2492,7 @@
       </c>
       <c r="E21" s="14"/>
     </row>
-    <row r="22" spans="1:5" s="2" customFormat="1" ht="31.5">
+    <row r="22" spans="1:5" s="2" customFormat="1" ht="31">
       <c r="A22" s="22">
         <f t="shared" si="3"/>
         <v>0.03</v>
@@ -2505,13 +2505,13 @@
       </c>
       <c r="E22" s="13"/>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="32.25" thickBot="1">
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="16" thickBot="1">
       <c r="A23" s="23">
         <f t="shared" si="3"/>
-        <v>-0.1</v>
+        <v>0.03</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>49</v>
@@ -2540,7 +2540,7 @@
       </c>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="1:5" ht="8.1" customHeight="1" thickBot="1">
+    <row r="26" spans="1:5" ht="8.15" customHeight="1" thickBot="1">
       <c r="C26" s="15"/>
     </row>
     <row r="27" spans="1:5" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" thickBot="1">
@@ -2556,13 +2556,13 @@
       </c>
       <c r="E27" s="13"/>
     </row>
-    <row r="28" spans="1:5" s="2" customFormat="1" ht="31.5">
+    <row r="28" spans="1:5" s="2" customFormat="1" ht="31">
       <c r="A28" s="21">
         <f t="shared" ref="A28:A30" si="5">IF(LEFT(B28,2)="No",-0.1,IF(LEFT(B28,7)="Partial",0.01,IF(LEFT(B28,4)="Full",0.03,"n/a")))</f>
-        <v>-0.1</v>
+        <v>0.03</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>48</v>
@@ -2572,10 +2572,10 @@
     <row r="29" spans="1:5" s="2" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A29" s="22">
         <f t="shared" si="5"/>
-        <v>-0.1</v>
+        <v>0.01</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>22</v>
@@ -2585,10 +2585,10 @@
     <row r="30" spans="1:5" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" thickBot="1">
       <c r="A30" s="23">
         <f t="shared" si="5"/>
-        <v>-0.1</v>
+        <v>0.03</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>23</v>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="E32" s="14"/>
     </row>
-    <row r="33" spans="1:5" ht="8.1" customHeight="1" thickBot="1">
+    <row r="33" spans="1:5" ht="8.15" customHeight="1" thickBot="1">
       <c r="C33" s="15"/>
     </row>
     <row r="34" spans="1:5" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" thickBot="1">
@@ -2633,7 +2633,7 @@
       </c>
       <c r="E34" s="14"/>
     </row>
-    <row r="35" spans="1:5" s="2" customFormat="1" ht="31.5">
+    <row r="35" spans="1:5" s="2" customFormat="1" ht="31">
       <c r="A35" s="21">
         <f t="shared" ref="A35:A37" si="7">IF(LEFT(B35,2)="No",-0.1,IF(LEFT(B35,7)="Partial",0.01,IF(LEFT(B35,4)="Full",0.03,"n/a")))</f>
         <v>-0.1</v>
@@ -2646,7 +2646,7 @@
       </c>
       <c r="E35" s="14"/>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" ht="31.5">
+    <row r="36" spans="1:5" s="2" customFormat="1">
       <c r="A36" s="22">
         <f t="shared" si="7"/>
         <v>-0.1</v>
@@ -2659,7 +2659,7 @@
       </c>
       <c r="E36" s="13"/>
     </row>
-    <row r="37" spans="1:5" s="2" customFormat="1" ht="32.25" thickBot="1">
+    <row r="37" spans="1:5" s="2" customFormat="1" ht="31.5" thickBot="1">
       <c r="A37" s="23">
         <f t="shared" si="7"/>
         <v>-0.1</v>
@@ -2694,7 +2694,7 @@
       </c>
       <c r="E39" s="14"/>
     </row>
-    <row r="40" spans="1:5" ht="8.1" customHeight="1" thickBot="1">
+    <row r="40" spans="1:5" ht="8.15" customHeight="1" thickBot="1">
       <c r="E40" s="14"/>
     </row>
     <row r="41" spans="1:5" s="32" customFormat="1" ht="16.149999999999999" customHeight="1" thickBot="1">
@@ -2773,7 +2773,7 @@
       </c>
       <c r="E46" s="14"/>
     </row>
-    <row r="47" spans="1:5" ht="16.5" thickBot="1"/>
+    <row r="47" spans="1:5" ht="16" thickBot="1"/>
     <row r="48" spans="1:5">
       <c r="A48" s="59" t="s">
         <v>39</v>
@@ -2799,7 +2799,7 @@
     <row r="52" spans="1:3">
       <c r="C52" s="62"/>
     </row>
-    <row r="53" spans="1:3" ht="16.5" thickBot="1">
+    <row r="53" spans="1:3" ht="16" thickBot="1">
       <c r="C53" s="63"/>
     </row>
   </sheetData>
@@ -2930,9 +2930,9 @@
       <selection activeCell="A3" sqref="A3:A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="89.7109375" customWidth="1"/>
+    <col min="1" max="1" width="89.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="24" thickBot="1">
@@ -2940,7 +2940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="9" customFormat="1" ht="16.5" thickBot="1">
+    <row r="2" spans="1:1" s="9" customFormat="1" ht="16" thickBot="1">
       <c r="A2" s="10" t="str">
         <f>IF(LEN(A3) &gt; 1000,"",IF(LEN(A3) &gt; 500,"You need more post-mortem reflection.",IF(A3&gt;0,IF(A3="If you think you have accomplished one or more bonus goals that you are worried might be overlooked, mention those here.","How did the project go? What did you learn? What could you improve?","You need A LOT MORE post-mortem reflection."),"How did the project go? What did you learn? What could you improve?")))</f>
         <v>You need A LOT MORE post-mortem reflection.</v>
@@ -3108,18 +3108,18 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="2" width="10.7109375" style="42" customWidth="1"/>
-    <col min="3" max="3" width="30.5703125" style="1" customWidth="1"/>
-    <col min="4" max="7" width="8.85546875" style="42"/>
-    <col min="8" max="8" width="8.85546875" style="43"/>
-    <col min="9" max="9" width="11.5703125" style="42" customWidth="1"/>
-    <col min="10" max="13" width="11.5703125" style="43" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="2" width="10.7265625" style="42" customWidth="1"/>
+    <col min="3" max="3" width="30.54296875" style="1" customWidth="1"/>
+    <col min="4" max="7" width="8.81640625" style="42"/>
+    <col min="8" max="8" width="8.81640625" style="43"/>
+    <col min="9" max="9" width="11.54296875" style="42" customWidth="1"/>
+    <col min="10" max="13" width="11.54296875" style="43" customWidth="1"/>
+    <col min="14" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" ht="23.25">
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="23.5">
       <c r="A1" s="66" t="s">
         <v>36</v>
       </c>
@@ -3174,9 +3174,9 @@
       <selection activeCell="A3" sqref="A3:A87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="90.5703125" customWidth="1"/>
+    <col min="1" max="1" width="90.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="24" thickBot="1">
@@ -3184,7 +3184,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="9" customFormat="1" ht="16.5" thickBot="1">
+    <row r="2" spans="1:1" s="9" customFormat="1" ht="16" thickBot="1">
       <c r="A2" s="10" t="str">
         <f>IF(LEN(A3) &gt; 1000,"",IF(LEN(A3) &gt; 500,"You need more telemetry analysis.",IF(A3&gt;0,"You need A LOT MORE telemetry analysis.","What did your telemetry data tell you and what changes did you make based on that data?")))</f>
         <v>What did your telemetry data tell you and what changes did you make based on that data?</v>
@@ -3461,13 +3461,13 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="172.85546875" style="50" customWidth="1"/>
+    <col min="1" max="1" width="172.81640625" style="50" customWidth="1"/>
     <col min="2" max="16384" width="9" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="23.25">
+    <row r="1" spans="1:1" ht="23.5">
       <c r="A1" s="48" t="s">
         <v>34</v>
       </c>
